--- a/emailGuide/test.xlsx
+++ b/emailGuide/test.xlsx
@@ -14,13 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">说 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发动机佛考试代理费地方</t>
+    <t>大爷的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -28,7 +24,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +38,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,23 +377,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:F7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
